--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -12,26 +12,95 @@
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>These credentials do not match our records.</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>We have e-mailed your password reset link!</t>
+  </si>
+  <si>
+    <t>We can't find a user with that e-mail address.</t>
+  </si>
+  <si>
+    <t>qwer@gmail.com</t>
+  </si>
+  <si>
+    <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>login message</t>
+  </si>
+  <si>
+    <t>error message</t>
+  </si>
+  <si>
+    <t>home page title</t>
+  </si>
+  <si>
+    <t>reset email address</t>
+  </si>
+  <si>
+    <t>confirmation message</t>
+  </si>
+  <si>
+    <t>invalid confirmation</t>
+  </si>
+  <si>
+    <t>invalid email address</t>
+  </si>
+  <si>
+    <t>Welcome XYZ,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFDD4B39"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,13 +120,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -350,49 +435,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
         <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="47.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="39.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="abc@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="ResetPage" sheetId="2" r:id="rId2"/>
     <sheet name="HomePage" sheetId="3" r:id="rId3"/>
+    <sheet name="UsersPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:D10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>admin</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Welcome XYZ,</t>
+  </si>
+  <si>
+    <t>email on search field</t>
+  </si>
+  <si>
+    <t>obadrahman@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -437,7 +443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -569,4 +575,34 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -581,7 +581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12870" windowHeight="3735" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -70,10 +70,10 @@
     <t>Welcome XYZ,</t>
   </si>
   <si>
-    <t>email on search field</t>
-  </si>
-  <si>
-    <t>obadrahman@gmail.com</t>
+    <t>username on search field</t>
+  </si>
+  <si>
+    <t>obadrahman</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -581,13 +581,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -601,7 +601,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="obadrahman@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/QALegend/src/main/resources/TestData.xlsx
+++ b/QALegend/src/main/resources/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>admin</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>obadrahman</t>
+  </si>
+  <si>
+    <t>obadrahman123@gmail.com</t>
+  </si>
+  <si>
+    <t>email on search field</t>
   </si>
 </sst>
 </file>
@@ -579,16 +585,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -599,9 +605,18 @@
         <v>18</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="obadrahman@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
